--- a/biology/Zoologie/Heliconius_sara/Heliconius_sara.xlsx
+++ b/biology/Zoologie/Heliconius_sara/Heliconius_sara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius sara est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,140 +523,392 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius sara a été décrit par l'entomologiste danois Johan Christian Fabricius en 1793[1], sous le nom initial de Papilio sara.
-Synonymes
-Papilio sara (Fabricius, 1793) protonyme[2]
-Noms vernaculaires
-Heliconius sara se nomme Sara Longwing en anglais.
-Taxinomie
-Sous-espèces
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius sara a été décrit par l'entomologiste danois Johan Christian Fabricius en 1793, sous le nom initial de Papilio sara.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio sara (Fabricius, 1793) protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius sara se nomme Sara Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous-espèces
 Heliconius sara sara (Fabricius, 1793) présent au Suriname et au Brésil.
 Synonymie  pour cette sous espèce
-Papilio rhea (Cramer, 1775)[3]
+Papilio rhea (Cramer, 1775)
 Heliconius sara thamar (Hübner, 1806)
-Nerëis thamar (Hübner, 1806)[4]
+Nerëis thamar (Hübner, 1806)
 Heliconius rhea ab. albinea (Riffarth, 1899)
 Heliconius sara praesignis (Stichel, 1919)
 Heliconius sara thamar f. nana (Stammeshaus, 1982)
-Heliconius sara apseudes (Hübner, [1813])
+Heliconius sara apseudes (Hübner, )
 Heliconius sara brevimaculata Staudinger ; présent en Colombie.
 Heliconius sara elektraa Neukirchen, 1998 ; présent en Colombie.
 Heliconius sara fulgidus Stichel, 1906 ; au Guatemala, au Costa Rica et  à Panama.
-Heliconius sara magdalena (Bates, 1864)[5] ; à Panama, en Colombie et au Venezuela.
+Heliconius sara magdalena (Bates, 1864) ; à Panama, en Colombie et au Venezuela.
 Synonymie  pour cette sous espèce
-Heliconius apseudes var. magdalena ab. albimacula (Staudinger, 1897) [6]
-Heliconius sara ab. albula (Riffarth, 1900)[7]
+Heliconius apseudes var. magdalena ab. albimacula (Staudinger, 1897) 
+Heliconius sara ab. albula (Riffarth, 1900)
 Heliconius sarae lilianae (Emsley, 1965)
-Heliconius sara sprucei (Bates, 1864)[8] ; en Équateur.
-Heliconius sara theudela (Hewitson, 1874)[9]  au Costa Rica et à Panama.
-Heliconius sara veraepacis (Bates, 1864)[8] ; au Venezuela.
-Heliconius sara williami (Neukirchen, 1994)[10] ; à Trinidad[2],[11].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_sara</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Heliconius sara sprucei (Bates, 1864) ; en Équateur.
+Heliconius sara theudela (Hewitson, 1874)  au Costa Rica et à Panama.
+Heliconius sara veraepacis (Bates, 1864) ; au Venezuela.
+Heliconius sara williami (Neukirchen, 1994) ; à Trinidad,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon au dessus noir avec une partie médiane bleu métallique et deux bandes blanches sur les ailes antérieures.
-Le dessous est marron foncé à noir avec les mêmes bandes blanches et des points rouges à la base des ailes[12].
-Chenille
-La chenille est jaune rayée de bandes noires avec une tête et des cornes noires[13].
+Le dessous est marron foncé à noir avec les mêmes bandes blanches et des points rouges à la base des ailes.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_sara</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est jaune rayée de bandes noires avec une tête et des cornes noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles sont attirées par les phéromones émises par les chrysalides femelles et sont en attente pour féconder les femelles dès leur émergence[12],[13].
-Période de vol et hivernation
-Il vole toute l'année.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles sont attirées par les phéromones émises par les chrysalides femelles et sont en attente pour féconder les femelles dès leur émergence,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
 Sa période imago dure 2 à 3 mois.
-Plantes hôtes
-La plante hôte est une Passiflora ou passiflore, Passiflora auriculata[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_sara</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte est une Passiflora ou passiflore, Passiflora auriculata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale et dans le bassin amazonien[2].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale et dans le bassin amazonien.
 Sur les autres projets Wikimedia :
 Heliconius sara, sur Wikimedia CommonsHeliconius sara, sur Wikispecies
-Biotope
-Son habitat est la forêt tropicale où il se tient dans la canopée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_sara</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt tropicale où il se tient dans la canopée.
 </t>
         </is>
       </c>
